--- a/문서/맵 레이아웃.xlsx
+++ b/문서/맵 레이아웃.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DeaSung\Git\Atents-Team-Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A2458B9-2D61-4477-A9FA-2EF507674A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027F74B1-204B-482C-9732-7FAA3F645476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F60DEC8-8C99-44FA-B135-BC15920F9409}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>절벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>카메라 고정!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -219,13 +223,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,9 +318,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -284,39 +352,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D51A41B-33A7-4F21-99A8-F6C5B0A8C895}">
   <dimension ref="A1:AE85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH29" sqref="AH29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1139,23 +1213,7 @@
     <row r="9" spans="7:24" ht="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="7:24" ht="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="7:24" ht="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="7:24" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-    </row>
+    <row r="12" spans="7:24" ht="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="7:24" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13">
         <v>1</v>
@@ -1207,43 +1265,42 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
     </row>
     <row r="15" spans="7:24" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="10"/>
+      <c r="X15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1251,88 +1308,81 @@
       <c r="G16">
         <v>3</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="10"/>
     </row>
     <row r="17" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>4</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="10"/>
     </row>
     <row r="18" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G18">
         <v>5</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="10"/>
     </row>
     <row r="19" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>6</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="22"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="10"/>
       <c r="Y19" t="s">
         <v>15</v>
       </c>
@@ -1341,22 +1391,21 @@
       <c r="G20">
         <v>7</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="22"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="10"/>
       <c r="Y20" t="s">
         <v>14</v>
       </c>
@@ -1365,23 +1414,22 @@
       <c r="G21">
         <v>8</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="25"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="10"/>
+      <c r="X21" s="21"/>
       <c r="Y21" t="s">
         <v>13</v>
       </c>
@@ -1390,23 +1438,22 @@
       <c r="G22">
         <v>9</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="24"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="10"/>
+      <c r="X22" s="20"/>
       <c r="Y22" t="s">
         <v>3</v>
       </c>
@@ -1415,918 +1462,899 @@
       <c r="G23">
         <v>10</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="23"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="10"/>
+      <c r="X23" s="19"/>
       <c r="Y23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="G24" s="22">
+      <c r="G24">
         <v>11</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
     </row>
     <row r="25" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25">
         <v>4</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25">
         <v>5</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25">
         <v>6</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25">
         <v>7</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25">
         <v>8</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25">
         <v>9</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25">
         <v>10</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O25" s="6">
         <v>11</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25">
         <v>12</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25">
         <v>13</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25">
         <v>14</v>
       </c>
-      <c r="S25" s="22">
+      <c r="S25">
         <v>15</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25">
         <v>16</v>
       </c>
-      <c r="U25" s="22">
+      <c r="U25">
         <v>17</v>
       </c>
-      <c r="V25" s="22">
+      <c r="V25">
         <v>18</v>
       </c>
-      <c r="W25" s="22">
+      <c r="W25">
         <v>19</v>
       </c>
-      <c r="X25" s="22">
+      <c r="X25">
         <v>20</v>
       </c>
-      <c r="Y25" s="22">
+      <c r="Y25">
         <v>21</v>
       </c>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
     </row>
     <row r="26" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-    </row>
-    <row r="27" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="1:31" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
       <c r="AD27" s="1"/>
       <c r="AE27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
+    <row r="28" spans="1:31" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="28"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
       <c r="AD28" s="3"/>
       <c r="AE28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
       <c r="AD30" s="5"/>
       <c r="AE30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="8"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="7"/>
       <c r="AE31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="9"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="8"/>
       <c r="AE32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
       <c r="AD33" s="6"/>
       <c r="AE33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
       <c r="AD34" s="4"/>
       <c r="AE34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="10"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="9"/>
       <c r="AE35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
       <c r="AE36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
     </row>
     <row r="38" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
     </row>
     <row r="39" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
     </row>
     <row r="40" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="20" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="20" t="s">
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
     </row>
     <row r="41" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
     </row>
     <row r="42" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
     </row>
     <row r="43" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
     </row>
     <row r="44" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
     </row>
     <row r="45" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
     </row>
     <row r="46" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
     </row>
     <row r="47" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
     </row>
     <row r="48" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="27"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
     </row>
     <row r="49" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
     </row>
     <row r="50" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
